--- a/산출물/설문조사 결과.xlsx
+++ b/산출물/설문조사 결과.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimyuri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimyuri\ssafy_\project3\project3_2\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAC4E97-FBA7-4D3C-811E-EE9BA982B828}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCB9E7E-4D1F-495D-83B2-0C70B3505484}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="19">
   <si>
     <t>산</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2538,8 +2537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3792,11 +3791,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECCFA06-820B-4A36-9F4C-D00E33C68220}">
-  <dimension ref="A1:T20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98941A65-27D5-4BAC-A8F8-6BA12B1A62C3}">
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3862,1259 +3861,6 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>10.8</v>
-      </c>
-      <c r="D2">
-        <v>13.3</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2">
-        <v>1.7</v>
-      </c>
-      <c r="H2">
-        <v>1.7</v>
-      </c>
-      <c r="I2">
-        <v>5.8</v>
-      </c>
-      <c r="J2">
-        <v>12.5</v>
-      </c>
-      <c r="K2">
-        <v>4.2</v>
-      </c>
-      <c r="L2">
-        <v>10.8</v>
-      </c>
-      <c r="M2">
-        <v>4.2</v>
-      </c>
-      <c r="N2">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="O2">
-        <v>46.7</v>
-      </c>
-      <c r="P2">
-        <v>11.7</v>
-      </c>
-      <c r="Q2">
-        <v>47.5</v>
-      </c>
-      <c r="R2">
-        <v>4.2</v>
-      </c>
-      <c r="S2">
-        <v>3.3</v>
-      </c>
-      <c r="T2">
-        <v>61.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>5.8</v>
-      </c>
-      <c r="E3">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>10.8</v>
-      </c>
-      <c r="G3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H3">
-        <v>2.5</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>3.3</v>
-      </c>
-      <c r="K3">
-        <v>58.3</v>
-      </c>
-      <c r="L3">
-        <v>17.5</v>
-      </c>
-      <c r="M3">
-        <v>21.7</v>
-      </c>
-      <c r="N3">
-        <v>55.8</v>
-      </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3">
-        <v>5.8</v>
-      </c>
-      <c r="Q3">
-        <v>35</v>
-      </c>
-      <c r="R3">
-        <v>4.2</v>
-      </c>
-      <c r="S3">
-        <v>20.8</v>
-      </c>
-      <c r="T3">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>12.5</v>
-      </c>
-      <c r="F4">
-        <v>59.2</v>
-      </c>
-      <c r="G4">
-        <v>50.8</v>
-      </c>
-      <c r="H4">
-        <v>14.2</v>
-      </c>
-      <c r="I4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J4">
-        <v>3.3</v>
-      </c>
-      <c r="K4">
-        <v>1.7</v>
-      </c>
-      <c r="L4">
-        <v>15</v>
-      </c>
-      <c r="M4">
-        <v>11.7</v>
-      </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <v>15.8</v>
-      </c>
-      <c r="P4">
-        <v>0.8</v>
-      </c>
-      <c r="Q4">
-        <v>75.8</v>
-      </c>
-      <c r="R4">
-        <v>2.5</v>
-      </c>
-      <c r="S4">
-        <v>17.5</v>
-      </c>
-      <c r="T4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>68.3</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>19.2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>28.3</v>
-      </c>
-      <c r="G5">
-        <v>14.2</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>12.5</v>
-      </c>
-      <c r="J5">
-        <v>3.3</v>
-      </c>
-      <c r="K5">
-        <v>13.3</v>
-      </c>
-      <c r="L5">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M5">
-        <v>20.8</v>
-      </c>
-      <c r="N5">
-        <v>7.5</v>
-      </c>
-      <c r="O5">
-        <v>3.3</v>
-      </c>
-      <c r="P5">
-        <v>3.3</v>
-      </c>
-      <c r="Q5">
-        <v>10</v>
-      </c>
-      <c r="R5">
-        <v>0.8</v>
-      </c>
-      <c r="S5">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="T5">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>6.7</v>
-      </c>
-      <c r="C6">
-        <v>4.2</v>
-      </c>
-      <c r="D6">
-        <v>25.8</v>
-      </c>
-      <c r="E6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>52.5</v>
-      </c>
-      <c r="H6">
-        <v>22.5</v>
-      </c>
-      <c r="I6">
-        <v>26.7</v>
-      </c>
-      <c r="J6">
-        <v>2.5</v>
-      </c>
-      <c r="K6">
-        <v>4.2</v>
-      </c>
-      <c r="L6">
-        <v>5.8</v>
-      </c>
-      <c r="M6">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="N6">
-        <v>55.8</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>5.8</v>
-      </c>
-      <c r="Q6">
-        <v>7.5</v>
-      </c>
-      <c r="R6">
-        <v>4.2</v>
-      </c>
-      <c r="S6">
-        <v>43.3</v>
-      </c>
-      <c r="T6">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>2.5</v>
-      </c>
-      <c r="D7">
-        <v>15.8</v>
-      </c>
-      <c r="E7">
-        <v>2.5</v>
-      </c>
-      <c r="F7">
-        <v>35</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>65.8</v>
-      </c>
-      <c r="I7">
-        <v>73.3</v>
-      </c>
-      <c r="J7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K7">
-        <v>3.3</v>
-      </c>
-      <c r="L7">
-        <v>2.5</v>
-      </c>
-      <c r="M7">
-        <v>15.8</v>
-      </c>
-      <c r="N7">
-        <v>29.2</v>
-      </c>
-      <c r="O7">
-        <v>3.3</v>
-      </c>
-      <c r="P7">
-        <v>4.2</v>
-      </c>
-      <c r="Q7">
-        <v>11.7</v>
-      </c>
-      <c r="R7">
-        <v>18.3</v>
-      </c>
-      <c r="S7">
-        <v>22.5</v>
-      </c>
-      <c r="T7">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>4.2</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F8">
-        <v>31.7</v>
-      </c>
-      <c r="G8">
-        <v>70.8</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>55.8</v>
-      </c>
-      <c r="J8">
-        <v>2.5</v>
-      </c>
-      <c r="K8">
-        <v>3.3</v>
-      </c>
-      <c r="L8">
-        <v>2.5</v>
-      </c>
-      <c r="M8">
-        <v>23.3</v>
-      </c>
-      <c r="N8">
-        <v>27.5</v>
-      </c>
-      <c r="O8">
-        <v>0.8</v>
-      </c>
-      <c r="P8">
-        <v>10.8</v>
-      </c>
-      <c r="Q8">
-        <v>6.7</v>
-      </c>
-      <c r="R8">
-        <v>14.2</v>
-      </c>
-      <c r="S8">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="T8">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C9">
-        <v>5.8</v>
-      </c>
-      <c r="D9">
-        <v>13.3</v>
-      </c>
-      <c r="E9">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F9">
-        <v>22.5</v>
-      </c>
-      <c r="G9">
-        <v>66.7</v>
-      </c>
-      <c r="H9">
-        <v>48.3</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>3.3</v>
-      </c>
-      <c r="K9">
-        <v>4.2</v>
-      </c>
-      <c r="L9">
-        <v>2.5</v>
-      </c>
-      <c r="M9">
-        <v>32.5</v>
-      </c>
-      <c r="N9">
-        <v>31.7</v>
-      </c>
-      <c r="O9">
-        <v>3.3</v>
-      </c>
-      <c r="P9">
-        <v>2.5</v>
-      </c>
-      <c r="Q9">
-        <v>22.5</v>
-      </c>
-      <c r="R9">
-        <v>25</v>
-      </c>
-      <c r="S9">
-        <v>22.5</v>
-      </c>
-      <c r="T9">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>54.2</v>
-      </c>
-      <c r="C10">
-        <v>18.3</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>5.8</v>
-      </c>
-      <c r="F10">
-        <v>13.3</v>
-      </c>
-      <c r="G10">
-        <v>26.7</v>
-      </c>
-      <c r="H10">
-        <v>4.2</v>
-      </c>
-      <c r="I10">
-        <v>16.7</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>15</v>
-      </c>
-      <c r="L10">
-        <v>20.8</v>
-      </c>
-      <c r="M10">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="N10">
-        <v>19.2</v>
-      </c>
-      <c r="O10">
-        <v>5.8</v>
-      </c>
-      <c r="P10">
-        <v>15</v>
-      </c>
-      <c r="Q10">
-        <v>16.7</v>
-      </c>
-      <c r="R10">
-        <v>5.8</v>
-      </c>
-      <c r="S10">
-        <v>19.2</v>
-      </c>
-      <c r="T10">
-        <v>43.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>21.7</v>
-      </c>
-      <c r="C11">
-        <v>79.2</v>
-      </c>
-      <c r="D11">
-        <v>3.3</v>
-      </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <v>4.2</v>
-      </c>
-      <c r="G11">
-        <v>1.7</v>
-      </c>
-      <c r="H11">
-        <v>3.3</v>
-      </c>
-      <c r="I11">
-        <v>10.8</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>15.8</v>
-      </c>
-      <c r="M11">
-        <v>28.3</v>
-      </c>
-      <c r="N11">
-        <v>21.7</v>
-      </c>
-      <c r="O11">
-        <v>21.7</v>
-      </c>
-      <c r="P11">
-        <v>25</v>
-      </c>
-      <c r="Q11">
-        <v>17.5</v>
-      </c>
-      <c r="R11">
-        <v>1.7</v>
-      </c>
-      <c r="S11">
-        <v>6.7</v>
-      </c>
-      <c r="T11">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>20.8</v>
-      </c>
-      <c r="C12">
-        <v>19.2</v>
-      </c>
-      <c r="D12">
-        <v>27.5</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="H12">
-        <v>1.7</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>5.8</v>
-      </c>
-      <c r="K12">
-        <v>15</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>22.5</v>
-      </c>
-      <c r="N12">
-        <v>29.2</v>
-      </c>
-      <c r="O12">
-        <v>24.2</v>
-      </c>
-      <c r="P12">
-        <v>7.5</v>
-      </c>
-      <c r="Q12">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="R12">
-        <v>6.7</v>
-      </c>
-      <c r="S12">
-        <v>16.7</v>
-      </c>
-      <c r="T12">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>19.2</v>
-      </c>
-      <c r="C13">
-        <v>32.5</v>
-      </c>
-      <c r="D13">
-        <v>14.2</v>
-      </c>
-      <c r="E13">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F13">
-        <v>49.2</v>
-      </c>
-      <c r="G13">
-        <v>32.5</v>
-      </c>
-      <c r="H13">
-        <v>11.7</v>
-      </c>
-      <c r="I13">
-        <v>41.7</v>
-      </c>
-      <c r="J13">
-        <v>4.2</v>
-      </c>
-      <c r="K13">
-        <v>11.7</v>
-      </c>
-      <c r="L13">
-        <v>10.8</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>20</v>
-      </c>
-      <c r="O13">
-        <v>3.3</v>
-      </c>
-      <c r="P13">
-        <v>4.2</v>
-      </c>
-      <c r="Q13">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="R13">
-        <v>13.3</v>
-      </c>
-      <c r="S13">
-        <v>40</v>
-      </c>
-      <c r="T13">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="C14">
-        <v>50.8</v>
-      </c>
-      <c r="D14">
-        <v>4.2</v>
-      </c>
-      <c r="E14">
-        <v>5.8</v>
-      </c>
-      <c r="F14">
-        <v>43.3</v>
-      </c>
-      <c r="G14">
-        <v>25.8</v>
-      </c>
-      <c r="H14">
-        <v>7.5</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-      <c r="J14">
-        <v>3.3</v>
-      </c>
-      <c r="K14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L14">
-        <v>20</v>
-      </c>
-      <c r="M14">
-        <v>10</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>25.8</v>
-      </c>
-      <c r="P14">
-        <v>10.8</v>
-      </c>
-      <c r="Q14">
-        <v>4.2</v>
-      </c>
-      <c r="R14">
-        <v>5.8</v>
-      </c>
-      <c r="S14">
-        <v>20</v>
-      </c>
-      <c r="T14">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>80</v>
-      </c>
-      <c r="C15">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="D15">
-        <v>26.7</v>
-      </c>
-      <c r="E15">
-        <v>5.8</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>2.5</v>
-      </c>
-      <c r="I15">
-        <v>4.2</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>17.5</v>
-      </c>
-      <c r="L15">
-        <v>31.7</v>
-      </c>
-      <c r="M15">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="N15">
-        <v>21.7</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>15.8</v>
-      </c>
-      <c r="Q15">
-        <v>20</v>
-      </c>
-      <c r="R15">
-        <v>0.8</v>
-      </c>
-      <c r="S15">
-        <v>5.8</v>
-      </c>
-      <c r="T15">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>68.3</v>
-      </c>
-      <c r="C16">
-        <v>22.5</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>6.7</v>
-      </c>
-      <c r="F16">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G16">
-        <v>6.7</v>
-      </c>
-      <c r="H16">
-        <v>13.3</v>
-      </c>
-      <c r="I16">
-        <v>10.8</v>
-      </c>
-      <c r="J16">
-        <v>7.5</v>
-      </c>
-      <c r="K16">
-        <v>20.8</v>
-      </c>
-      <c r="L16">
-        <v>13.3</v>
-      </c>
-      <c r="M16">
-        <v>20</v>
-      </c>
-      <c r="N16">
-        <v>28.3</v>
-      </c>
-      <c r="O16">
-        <v>18.3</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>16.7</v>
-      </c>
-      <c r="R16">
-        <v>1.7</v>
-      </c>
-      <c r="S16">
-        <v>12.5</v>
-      </c>
-      <c r="T16">
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>55.8</v>
-      </c>
-      <c r="C17">
-        <v>42.5</v>
-      </c>
-      <c r="D17">
-        <v>66.7</v>
-      </c>
-      <c r="E17">
-        <v>18.3</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>5.8</v>
-      </c>
-      <c r="I17">
-        <v>13.3</v>
-      </c>
-      <c r="J17">
-        <v>6.7</v>
-      </c>
-      <c r="K17">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="L17">
-        <v>27.5</v>
-      </c>
-      <c r="M17">
-        <v>10</v>
-      </c>
-      <c r="N17">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="O17">
-        <v>5.8</v>
-      </c>
-      <c r="P17">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>4.2</v>
-      </c>
-      <c r="S17">
-        <v>6.7</v>
-      </c>
-      <c r="T17">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>5.8</v>
-      </c>
-      <c r="C18">
-        <v>5.8</v>
-      </c>
-      <c r="D18">
-        <v>6.7</v>
-      </c>
-      <c r="E18">
-        <v>3.3</v>
-      </c>
-      <c r="F18">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G18">
-        <v>55.8</v>
-      </c>
-      <c r="H18">
-        <v>22.5</v>
-      </c>
-      <c r="I18">
-        <v>76.7</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>4.2</v>
-      </c>
-      <c r="L18">
-        <v>2.5</v>
-      </c>
-      <c r="M18">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="N18">
-        <v>18.3</v>
-      </c>
-      <c r="O18">
-        <v>5</v>
-      </c>
-      <c r="P18">
-        <v>1.7</v>
-      </c>
-      <c r="Q18">
-        <v>15.8</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>30</v>
-      </c>
-      <c r="T18">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>14.2</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>16.7</v>
-      </c>
-      <c r="E19">
-        <v>30.8</v>
-      </c>
-      <c r="F19">
-        <v>59.2</v>
-      </c>
-      <c r="G19">
-        <v>28.3</v>
-      </c>
-      <c r="H19">
-        <v>30</v>
-      </c>
-      <c r="I19">
-        <v>25.8</v>
-      </c>
-      <c r="J19">
-        <v>5.8</v>
-      </c>
-      <c r="K19">
-        <v>5.8</v>
-      </c>
-      <c r="L19">
-        <v>5</v>
-      </c>
-      <c r="M19">
-        <v>22.5</v>
-      </c>
-      <c r="N19">
-        <v>25.8</v>
-      </c>
-      <c r="O19">
-        <v>4.2</v>
-      </c>
-      <c r="P19">
-        <v>5.8</v>
-      </c>
-      <c r="Q19">
-        <v>6.7</v>
-      </c>
-      <c r="R19">
-        <v>10</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>69.2</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>7.5</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>2.5</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <v>10.8</v>
-      </c>
-      <c r="K20">
-        <v>11.7</v>
-      </c>
-      <c r="L20">
-        <v>32.5</v>
-      </c>
-      <c r="M20">
-        <v>17.5</v>
-      </c>
-      <c r="N20">
-        <v>29.2</v>
-      </c>
-      <c r="O20">
-        <v>30</v>
-      </c>
-      <c r="P20">
-        <v>35</v>
-      </c>
-      <c r="Q20">
-        <v>18.3</v>
-      </c>
-      <c r="R20">
-        <v>4.2</v>
-      </c>
-      <c r="S20">
-        <v>10</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98941A65-27D5-4BAC-A8F8-6BA12B1A62C3}">
-  <dimension ref="A1:T10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
